--- a/assets/excel/Data Destinasi.xlsx
+++ b/assets/excel/Data Destinasi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Dusun XXII Borobudur, Magelang Regency, Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Alfa.png</t>
+  </si>
+  <si>
+    <t>Candi Prambanan</t>
+  </si>
+  <si>
+    <t>Salah satu candi bercorak hindu</t>
+  </si>
+  <si>
+    <t>Dusun XXII Borobudur, Magelang Regency, Central Java</t>
   </si>
   <si>
     <t>Alfa.jpg</t>
@@ -386,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +450,29 @@
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>23356794</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>-7.6078738</v>
+      </c>
+      <c r="E3">
+        <v>110.200222</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
